--- a/output/MAUÁ_05903038000198.xlsx
+++ b/output/MAUÁ_05903038000198.xlsx
@@ -2473,10 +2473,10 @@
         <v>44165</v>
       </c>
       <c r="B190">
-        <v>4.480659256479839</v>
+        <v>4.441676058548767</v>
       </c>
       <c r="C190">
-        <v>0.01800959089729193</v>
+        <v>0.01076862452435812</v>
       </c>
     </row>
   </sheetData>

--- a/output/MAUÁ_05903038000198.xlsx
+++ b/output/MAUÁ_05903038000198.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>MAUÁ MACRO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,2097 +383,1530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:B190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38442</v>
       </c>
       <c r="B2">
-        <v>0.02954479116730124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38472</v>
       </c>
       <c r="B3">
-        <v>0.04970494247485502</v>
-      </c>
-      <c r="C3">
         <v>0.01958161653627144</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38503</v>
       </c>
       <c r="B4">
-        <v>0.06900717881779284</v>
-      </c>
-      <c r="C4">
         <v>0.01838824946125306</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38533</v>
       </c>
       <c r="B5">
-        <v>0.08231558240333969</v>
-      </c>
-      <c r="C5">
         <v>0.01244931170646058</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38564</v>
       </c>
       <c r="B6">
-        <v>0.09073486419558874</v>
-      </c>
-      <c r="C6">
         <v>0.007778952764916802</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38595</v>
       </c>
       <c r="B7">
-        <v>0.1230949098457979</v>
-      </c>
-      <c r="C7">
         <v>0.02966811340909548</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38625</v>
       </c>
       <c r="B8">
-        <v>0.1540128850939171</v>
-      </c>
-      <c r="C8">
         <v>0.02752926308994152</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>38656</v>
       </c>
       <c r="B9">
-        <v>0.1782681903717176</v>
-      </c>
-      <c r="C9">
         <v>0.02101822743151316</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>38686</v>
       </c>
       <c r="B10">
-        <v>0.2133188771976073</v>
-      </c>
-      <c r="C10">
         <v>0.02974763055839769</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>38717</v>
       </c>
       <c r="B11">
-        <v>0.2022148996698121</v>
-      </c>
-      <c r="C11">
         <v>-0.00915173886805587</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>38748</v>
       </c>
       <c r="B12">
-        <v>0.290948949644815</v>
-      </c>
-      <c r="C12">
         <v>0.07380880905682807</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>38776</v>
       </c>
       <c r="B13">
-        <v>0.3129906449668731</v>
-      </c>
-      <c r="C13">
         <v>0.01707402552837012</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>38807</v>
       </c>
       <c r="B14">
-        <v>0.3200068241464238</v>
-      </c>
-      <c r="C14">
         <v>0.005343662733962251</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>38837</v>
       </c>
       <c r="B15">
-        <v>0.351588095088776</v>
-      </c>
-      <c r="C15">
         <v>0.02392508157128215</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>38868</v>
       </c>
       <c r="B16">
-        <v>0.3358694072382014</v>
-      </c>
-      <c r="C16">
         <v>-0.01162979158198507</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>38898</v>
       </c>
       <c r="B17">
-        <v>0.4082198225509339</v>
-      </c>
-      <c r="C17">
         <v>0.05415979654950775</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>38929</v>
       </c>
       <c r="B18">
-        <v>0.4387965975642121</v>
-      </c>
-      <c r="C18">
         <v>0.02171306959583164</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>38960</v>
       </c>
       <c r="B19">
-        <v>0.4771613464189708</v>
-      </c>
-      <c r="C19">
         <v>0.02666447009932305</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>38990</v>
       </c>
       <c r="B20">
-        <v>0.501012000364238</v>
-      </c>
-      <c r="C20">
         <v>0.01614627542420299</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>39021</v>
       </c>
       <c r="B21">
-        <v>0.543846217895775</v>
-      </c>
-      <c r="C21">
         <v>0.02853689212420885</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>39051</v>
       </c>
       <c r="B22">
-        <v>0.5525770719309679</v>
-      </c>
-      <c r="C22">
         <v>0.005655261472281126</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>39082</v>
       </c>
       <c r="B23">
-        <v>0.5876134868659983</v>
-      </c>
-      <c r="C23">
         <v>0.02256661879687227</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>39113</v>
       </c>
       <c r="B24">
-        <v>0.6069988672483846</v>
-      </c>
-      <c r="C24">
         <v>0.0122103903391837</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>39141</v>
       </c>
       <c r="B25">
-        <v>0.6133468965900883</v>
-      </c>
-      <c r="C25">
         <v>0.003950238840288334</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>39172</v>
       </c>
       <c r="B26">
-        <v>0.631344799741774</v>
-      </c>
-      <c r="C26">
         <v>0.01115563130888053</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>39202</v>
       </c>
       <c r="B27">
-        <v>0.668768787218792</v>
-      </c>
-      <c r="C27">
         <v>0.02294057484533107</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>39233</v>
       </c>
       <c r="B28">
-        <v>0.6985421483164096</v>
-      </c>
-      <c r="C28">
         <v>0.01784151365105435</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>39263</v>
       </c>
       <c r="B29">
-        <v>0.7354412505124313</v>
-      </c>
-      <c r="C29">
         <v>0.02172398384849972</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>39294</v>
       </c>
       <c r="B30">
-        <v>0.7500211208394765</v>
-      </c>
-      <c r="C30">
         <v>0.008401246842980159</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>39325</v>
       </c>
       <c r="B31">
-        <v>0.688447145285227</v>
-      </c>
-      <c r="C31">
         <v>-0.03518470424214803</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>39355</v>
       </c>
       <c r="B32">
-        <v>0.7358293694113129</v>
-      </c>
-      <c r="C32">
         <v>0.028062604303839</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>39386</v>
       </c>
       <c r="B33">
-        <v>0.7204551131670951</v>
-      </c>
-      <c r="C33">
         <v>-0.008857008940591826</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>39416</v>
       </c>
       <c r="B34">
-        <v>0.6956859489549598</v>
-      </c>
-      <c r="C34">
         <v>-0.01439686744662527</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>39447</v>
       </c>
       <c r="B35">
-        <v>0.6876224510874167</v>
-      </c>
-      <c r="C35">
         <v>-0.004755301459278272</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>39478</v>
       </c>
       <c r="B36">
-        <v>0.6855593975334575</v>
-      </c>
-      <c r="C36">
         <v>-0.001222461547978226</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>39507</v>
       </c>
       <c r="B37">
-        <v>0.7055790975615548</v>
-      </c>
-      <c r="C37">
         <v>0.01187718454620645</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>39538</v>
       </c>
       <c r="B38">
-        <v>0.6018498822427278</v>
-      </c>
-      <c r="C38">
         <v>-0.06081759296131584</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>39568</v>
       </c>
       <c r="B39">
-        <v>0.6138960667618363</v>
-      </c>
-      <c r="C39">
         <v>0.007520170680565208</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39599</v>
       </c>
       <c r="B40">
-        <v>0.6104428006495342</v>
-      </c>
-      <c r="C40">
         <v>-0.002139707868072827</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>39629</v>
       </c>
       <c r="B41">
-        <v>0.6055137685834866</v>
-      </c>
-      <c r="C41">
         <v>-0.00306066881981748</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>39660</v>
       </c>
       <c r="B42">
-        <v>0.6267137554028923</v>
-      </c>
-      <c r="C42">
         <v>0.0132044877062063</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>39691</v>
       </c>
       <c r="B43">
-        <v>0.6452258363742596</v>
-      </c>
-      <c r="C43">
         <v>0.01138004821676963</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>39721</v>
       </c>
       <c r="B44">
-        <v>0.6358100166139267</v>
-      </c>
-      <c r="C44">
         <v>-0.005723116882897616</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>39752</v>
       </c>
       <c r="B45">
-        <v>0.6167706410056086</v>
-      </c>
-      <c r="C45">
         <v>-0.01163911176416987</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>39782</v>
       </c>
       <c r="B46">
-        <v>0.6839858755050348</v>
-      </c>
-      <c r="C46">
         <v>0.0415737599351873</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>39813</v>
       </c>
       <c r="B47">
-        <v>0.7574921935095495</v>
-      </c>
-      <c r="C47">
         <v>0.04365019865886333</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>39844</v>
       </c>
       <c r="B48">
-        <v>0.8132955135311912</v>
-      </c>
-      <c r="C48">
         <v>0.03175167447555349</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>39872</v>
       </c>
       <c r="B49">
-        <v>0.8386710488599671</v>
-      </c>
-      <c r="C49">
         <v>0.01399415326372244</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>39903</v>
       </c>
       <c r="B50">
-        <v>0.8687856101924263</v>
-      </c>
-      <c r="C50">
         <v>0.01637843884643275</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>39933</v>
       </c>
       <c r="B51">
-        <v>0.8996542007298225</v>
-      </c>
-      <c r="C51">
         <v>0.01651799455702019</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>39964</v>
       </c>
       <c r="B52">
-        <v>0.9366475866934107</v>
-      </c>
-      <c r="C52">
         <v>0.01947374735326868</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>39994</v>
       </c>
       <c r="B53">
-        <v>0.9566839467092985</v>
-      </c>
-      <c r="C53">
         <v>0.01034589883753578</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>40025</v>
       </c>
       <c r="B54">
-        <v>0.9740385234758078</v>
-      </c>
-      <c r="C54">
         <v>0.008869381688185074</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>40056</v>
       </c>
       <c r="B55">
-        <v>0.9699093550685587</v>
-      </c>
-      <c r="C55">
         <v>-0.002091736487481843</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>40086</v>
       </c>
       <c r="B56">
-        <v>0.9962268847984168</v>
-      </c>
-      <c r="C56">
         <v>0.01335976686548723</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>40117</v>
       </c>
       <c r="B57">
-        <v>1.011029188284436</v>
-      </c>
-      <c r="C57">
         <v>0.007415140833309408</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>40147</v>
       </c>
       <c r="B58">
-        <v>1.02768740803258</v>
-      </c>
-      <c r="C58">
         <v>0.008283430118861235</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>40178</v>
       </c>
       <c r="B59">
-        <v>1.03377042097472</v>
-      </c>
-      <c r="C59">
         <v>0.002999975695485491</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>40209</v>
       </c>
       <c r="B60">
-        <v>1.019573675093389</v>
-      </c>
-      <c r="C60">
         <v>-0.006980505633731315</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>40237</v>
       </c>
       <c r="B61">
-        <v>1.054930980809834</v>
-      </c>
-      <c r="C61">
         <v>0.01750731164329022</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>40268</v>
       </c>
       <c r="B62">
-        <v>1.082715373214552</v>
-      </c>
-      <c r="C62">
         <v>0.01352083970906315</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>40298</v>
       </c>
       <c r="B63">
-        <v>1.101378349314804</v>
-      </c>
-      <c r="C63">
         <v>0.008960886513958322</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>40329</v>
       </c>
       <c r="B64">
-        <v>1.076640912068783</v>
-      </c>
-      <c r="C64">
         <v>-0.01177200538593504</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>40359</v>
       </c>
       <c r="B65">
-        <v>1.087475802094084</v>
-      </c>
-      <c r="C65">
         <v>0.005217507736813065</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>40390</v>
       </c>
       <c r="B66">
-        <v>1.04333556694803</v>
-      </c>
-      <c r="C66">
         <v>-0.02114526793641114</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>40421</v>
       </c>
       <c r="B67">
-        <v>1.091253548928173</v>
-      </c>
-      <c r="C67">
         <v>0.02345086277322239</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>40451</v>
       </c>
       <c r="B68">
-        <v>1.039473798785472</v>
-      </c>
-      <c r="C68">
         <v>-0.02476014932251502</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>40482</v>
       </c>
       <c r="B69">
-        <v>1.047769749189588</v>
-      </c>
-      <c r="C69">
         <v>0.004067691582533062</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>40512</v>
       </c>
       <c r="B70">
-        <v>1.054743693776528</v>
-      </c>
-      <c r="C70">
         <v>0.003405629265545773</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>40543</v>
       </c>
       <c r="B71">
-        <v>1.058527614230932</v>
-      </c>
-      <c r="C71">
         <v>0.001841553506583438</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>40574</v>
       </c>
       <c r="B72">
-        <v>1.064665570409708</v>
-      </c>
-      <c r="C72">
         <v>0.002981721564647932</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>40602</v>
       </c>
       <c r="B73">
-        <v>1.084243905480966</v>
-      </c>
-      <c r="C73">
         <v>0.009482569648010086</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>40633</v>
       </c>
       <c r="B74">
-        <v>1.106559289466757</v>
-      </c>
-      <c r="C74">
         <v>0.01070670468418178</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>40663</v>
       </c>
       <c r="B75">
-        <v>1.129529747573903</v>
-      </c>
-      <c r="C75">
         <v>0.0109042542604918</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>40694</v>
       </c>
       <c r="B76">
-        <v>1.145059719784816</v>
-      </c>
-      <c r="C76">
         <v>0.007292676812148846</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>40724</v>
       </c>
       <c r="B77">
-        <v>1.155122180212031</v>
-      </c>
-      <c r="C77">
         <v>0.004690993138514399</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>40755</v>
       </c>
       <c r="B78">
-        <v>1.141663295339916</v>
-      </c>
-      <c r="C78">
         <v>-0.006245068143092669</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>40786</v>
       </c>
       <c r="B79">
-        <v>1.274510185375139</v>
-      </c>
-      <c r="C79">
         <v>0.06202977392584841</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>40816</v>
       </c>
       <c r="B80">
-        <v>1.329702898065464</v>
-      </c>
-      <c r="C80">
         <v>0.0242657575442875</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>40847</v>
       </c>
       <c r="B81">
-        <v>1.310077382135547</v>
-      </c>
-      <c r="C81">
         <v>-0.008424042373048501</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>40877</v>
       </c>
       <c r="B82">
-        <v>1.388470703117388</v>
-      </c>
-      <c r="C82">
         <v>0.03393536579686796</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>40908</v>
       </c>
       <c r="B83">
-        <v>1.342009210117453</v>
-      </c>
-      <c r="C83">
         <v>-0.01945240230047385</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>40939</v>
       </c>
       <c r="B84">
-        <v>1.38439483675019</v>
-      </c>
-      <c r="C84">
         <v>0.01809797606671726</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>40968</v>
       </c>
       <c r="B85">
-        <v>1.445596109031861</v>
-      </c>
-      <c r="C85">
         <v>0.02566742359041729</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>40999</v>
       </c>
       <c r="B86">
-        <v>1.551954133657604</v>
-      </c>
-      <c r="C86">
         <v>0.04348961148284114</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>41029</v>
       </c>
       <c r="B87">
-        <v>1.684522697727517</v>
-      </c>
-      <c r="C87">
         <v>0.05194786313808386</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>41060</v>
       </c>
       <c r="B88">
-        <v>1.807445731205872</v>
-      </c>
-      <c r="C88">
         <v>0.04578953032597233</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>41090</v>
       </c>
       <c r="B89">
-        <v>1.783737390830487</v>
-      </c>
-      <c r="C89">
         <v>-0.008444808072995746</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>41121</v>
       </c>
       <c r="B90">
-        <v>1.795697995734731</v>
-      </c>
-      <c r="C90">
         <v>0.004296599579989735</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>41152</v>
       </c>
       <c r="B91">
-        <v>1.768036792991325</v>
-      </c>
-      <c r="C91">
         <v>-0.009894202730626578</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>41182</v>
       </c>
       <c r="B92">
-        <v>1.778062749549929</v>
-      </c>
-      <c r="C92">
         <v>0.003622045987246025</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>41213</v>
       </c>
       <c r="B93">
-        <v>1.825088783703967</v>
-      </c>
-      <c r="C93">
         <v>0.01692763569205069</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>41243</v>
       </c>
       <c r="B94">
-        <v>1.767499358508978</v>
-      </c>
-      <c r="C94">
         <v>-0.02038499658034953</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>41274</v>
       </c>
       <c r="B95">
-        <v>1.851965199687776</v>
-      </c>
-      <c r="C95">
         <v>0.03052063622674339</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>41305</v>
       </c>
       <c r="B96">
-        <v>1.836272077938414</v>
-      </c>
-      <c r="C96">
         <v>-0.005502564249760256</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>41333</v>
       </c>
       <c r="B97">
-        <v>1.85531045012084</v>
-      </c>
-      <c r="C97">
         <v>0.006712463282529946</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>41364</v>
       </c>
       <c r="B98">
-        <v>1.856112503459021</v>
-      </c>
-      <c r="C98">
         <v>0.000280898820703035</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>41394</v>
       </c>
       <c r="B99">
-        <v>1.848263922268508</v>
-      </c>
-      <c r="C99">
         <v>-0.002747994408836218</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>41425</v>
       </c>
       <c r="B100">
-        <v>1.837774741516852</v>
-      </c>
-      <c r="C100">
         <v>-0.003682657589996641</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>41455</v>
       </c>
       <c r="B101">
-        <v>1.82264166605547</v>
-      </c>
-      <c r="C101">
         <v>-0.005332726111056174</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>41486</v>
       </c>
       <c r="B102">
-        <v>1.862676540065641</v>
-      </c>
-      <c r="C102">
         <v>0.01418347730483216</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>41517</v>
       </c>
       <c r="B103">
-        <v>1.803299041820396</v>
-      </c>
-      <c r="C103">
         <v>-0.02074195160165848</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>41547</v>
       </c>
       <c r="B104">
-        <v>1.836193464905428</v>
-      </c>
-      <c r="C104">
         <v>0.0117341826877202</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>41578</v>
       </c>
       <c r="B105">
-        <v>1.812094592023402</v>
-      </c>
-      <c r="C105">
         <v>-0.008496907273858767</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>41608</v>
       </c>
       <c r="B106">
-        <v>1.834777976077222</v>
-      </c>
-      <c r="C106">
         <v>0.008066365945925691</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>41639</v>
       </c>
       <c r="B107">
-        <v>1.911111951078736</v>
-      </c>
-      <c r="C107">
         <v>0.02692767322368783</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>41670</v>
       </c>
       <c r="B108">
-        <v>1.828296629984222</v>
-      </c>
-      <c r="C108">
         <v>-0.02844800285465687</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>41698</v>
       </c>
       <c r="B109">
-        <v>1.816792510162699</v>
-      </c>
-      <c r="C109">
         <v>-0.004067508230771177</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>41729</v>
       </c>
       <c r="B110">
-        <v>1.872733227250808</v>
-      </c>
-      <c r="C110">
         <v>0.01985972232114386</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>41759</v>
       </c>
       <c r="B111">
-        <v>1.877385031025773</v>
-      </c>
-      <c r="C111">
         <v>0.001619295425985934</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>41790</v>
       </c>
       <c r="B112">
-        <v>1.952097873707939</v>
-      </c>
-      <c r="C112">
         <v>0.02596553533036605</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>41820</v>
       </c>
       <c r="B113">
-        <v>1.984652564139359</v>
-      </c>
-      <c r="C113">
         <v>0.011027646041603</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>41851</v>
       </c>
       <c r="B114">
-        <v>1.966785672552227</v>
-      </c>
-      <c r="C114">
         <v>-0.005986255084361347</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>41882</v>
       </c>
       <c r="B115">
-        <v>1.976825892498081</v>
-      </c>
-      <c r="C115">
         <v>0.003384208046689041</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>41912</v>
       </c>
       <c r="B116">
-        <v>1.893061566485292</v>
-      </c>
-      <c r="C116">
         <v>-0.02813880590863027</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>41943</v>
       </c>
       <c r="B117">
-        <v>1.82859138917441</v>
-      </c>
-      <c r="C117">
         <v>-0.02228441249150648</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>41973</v>
       </c>
       <c r="B118">
-        <v>1.824797289899732</v>
-      </c>
-      <c r="C118">
         <v>-0.001341338762890443</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>42004</v>
       </c>
       <c r="B119">
-        <v>1.790568102749111</v>
-      </c>
-      <c r="C119">
         <v>-0.01211739591828764</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>42035</v>
       </c>
       <c r="B120">
-        <v>1.847241416403675</v>
-      </c>
-      <c r="C120">
         <v>0.02030888033111711</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>42063</v>
       </c>
       <c r="B121">
-        <v>1.8615623780485</v>
-      </c>
-      <c r="C121">
         <v>0.00502976725553328</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>42094</v>
       </c>
       <c r="B122">
-        <v>1.913682289568446</v>
-      </c>
-      <c r="C122">
         <v>0.018213795344727</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>42124</v>
       </c>
       <c r="B123">
-        <v>1.983124319578391</v>
-      </c>
-      <c r="C123">
         <v>0.02383308237090964</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>42155</v>
       </c>
       <c r="B124">
-        <v>2.036719131101207</v>
-      </c>
-      <c r="C124">
         <v>0.0179659999990851</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>42185</v>
       </c>
       <c r="B125">
-        <v>2.000124315680904</v>
-      </c>
-      <c r="C125">
         <v>-0.01205077382544528</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>42216</v>
       </c>
       <c r="B126">
-        <v>2.046520262152101</v>
-      </c>
-      <c r="C126">
         <v>0.01546467465654588</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>42247</v>
       </c>
       <c r="B127">
-        <v>2.080096095036337</v>
-      </c>
-      <c r="C127">
         <v>0.0110210436810021</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>42277</v>
       </c>
       <c r="B128">
-        <v>2.038099115943524</v>
-      </c>
-      <c r="C128">
         <v>-0.01363495741593679</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>42308</v>
       </c>
       <c r="B129">
-        <v>2.201162281815988</v>
-      </c>
-      <c r="C129">
         <v>0.05367276038386359</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>42338</v>
       </c>
       <c r="B130">
-        <v>2.246203743643109</v>
-      </c>
-      <c r="C130">
         <v>0.0140703462873395</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>42369</v>
       </c>
       <c r="B131">
-        <v>2.256951808274791</v>
-      </c>
-      <c r="C131">
         <v>0.003310964277189798</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>42400</v>
       </c>
       <c r="B132">
-        <v>2.401866260902779</v>
-      </c>
-      <c r="C132">
         <v>0.04449388912043761</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>42429</v>
       </c>
       <c r="B133">
-        <v>2.522653376942676</v>
-      </c>
-      <c r="C133">
         <v>0.03550613303882311</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>42460</v>
       </c>
       <c r="B134">
-        <v>2.615543249888125</v>
-      </c>
-      <c r="C134">
         <v>0.02636929127158916</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>42490</v>
       </c>
       <c r="B135">
-        <v>2.741754281124361</v>
-      </c>
-      <c r="C135">
         <v>0.03490790249574305</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>42521</v>
       </c>
       <c r="B136">
-        <v>2.744020546845852</v>
-      </c>
-      <c r="C136">
         <v>0.0006056693067535424</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>42551</v>
       </c>
       <c r="B137">
-        <v>2.770841760941576</v>
-      </c>
-      <c r="C137">
         <v>0.007163746501957613</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>42582</v>
       </c>
       <c r="B138">
-        <v>2.796560986645436</v>
-      </c>
-      <c r="C138">
         <v>0.006820552898893828</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>42613</v>
       </c>
       <c r="B139">
-        <v>2.852325813662537</v>
-      </c>
-      <c r="C139">
         <v>0.01468824739369556</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>42643</v>
       </c>
       <c r="B140">
-        <v>2.962221815230035</v>
-      </c>
-      <c r="C140">
         <v>0.02852718250822517</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>42674</v>
       </c>
       <c r="B141">
-        <v>3.068878294572819</v>
-      </c>
-      <c r="C141">
         <v>0.02691835144938559</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>42704</v>
       </c>
       <c r="B142">
-        <v>3.070676562033299</v>
-      </c>
-      <c r="C142">
         <v>0.0004419565615609855</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>42735</v>
       </c>
       <c r="B143">
-        <v>3.212768933906052</v>
-      </c>
-      <c r="C143">
         <v>0.03490632815145056</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>42766</v>
       </c>
       <c r="B144">
-        <v>3.348146810561908</v>
-      </c>
-      <c r="C144">
         <v>0.03213512983498368</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>42794</v>
       </c>
       <c r="B145">
-        <v>3.520254309646885</v>
-      </c>
-      <c r="C145">
         <v>0.03958180498112829</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>42825</v>
       </c>
       <c r="B146">
-        <v>3.526124985340132</v>
-      </c>
-      <c r="C146">
         <v>0.001298748984259079</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>42855</v>
       </c>
       <c r="B147">
-        <v>3.602527848788821</v>
-      </c>
-      <c r="C147">
         <v>0.01688041397357654</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>42886</v>
       </c>
       <c r="B148">
-        <v>3.413858972601017</v>
-      </c>
-      <c r="C148">
         <v>-0.0409924464090865</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>42916</v>
       </c>
       <c r="B149">
-        <v>3.406899559265019</v>
-      </c>
-      <c r="C149">
         <v>-0.001576718553809253</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>42947</v>
       </c>
       <c r="B150">
-        <v>3.536048189953624</v>
-      </c>
-      <c r="C150">
         <v>0.02930600730780974</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>42978</v>
       </c>
       <c r="B151">
-        <v>3.651530491639712</v>
-      </c>
-      <c r="C151">
         <v>0.02545879074694524</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>43008</v>
       </c>
       <c r="B152">
-        <v>3.813331139402147</v>
-      </c>
-      <c r="C152">
         <v>0.03478438936458472</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>43039</v>
       </c>
       <c r="B153">
-        <v>3.852116887778224</v>
-      </c>
-      <c r="C153">
         <v>0.008057984637411586</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>43069</v>
       </c>
       <c r="B154">
-        <v>3.860075729600816</v>
-      </c>
-      <c r="C154">
         <v>0.001640282377087798</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>43100</v>
       </c>
       <c r="B155">
-        <v>3.9029222468945</v>
-      </c>
-      <c r="C155">
         <v>0.008816018448585483</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>43131</v>
       </c>
       <c r="B156">
-        <v>4.091057642778257</v>
-      </c>
-      <c r="C156">
         <v>0.03837209452034895</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>43159</v>
       </c>
       <c r="B157">
-        <v>4.161336301801597</v>
-      </c>
-      <c r="C157">
         <v>0.0138043337857372</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>43190</v>
       </c>
       <c r="B158">
-        <v>4.194095134128492</v>
-      </c>
-      <c r="C158">
         <v>0.006346967221543265</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>43220</v>
       </c>
       <c r="B159">
-        <v>4.152285117514566</v>
-      </c>
-      <c r="C159">
         <v>-0.008049528461503863</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>43251</v>
       </c>
       <c r="B160">
-        <v>3.974542885295879</v>
-      </c>
-      <c r="C160">
         <v>-0.03449774773031755</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>43281</v>
       </c>
       <c r="B161">
-        <v>4.039406907269204</v>
-      </c>
-      <c r="C161">
         <v>0.01303919243817453</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>43312</v>
       </c>
       <c r="B162">
-        <v>4.05942214715425</v>
-      </c>
-      <c r="C162">
         <v>0.003971745138535043</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>43343</v>
       </c>
       <c r="B163">
-        <v>4.107764180742798</v>
-      </c>
-      <c r="C163">
         <v>0.009554852744544817</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>43373</v>
       </c>
       <c r="B164">
-        <v>4.135851285338254</v>
-      </c>
-      <c r="C164">
         <v>0.005498903943402356</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>43404</v>
       </c>
       <c r="B165">
-        <v>4.077878721524868</v>
-      </c>
-      <c r="C165">
         <v>-0.01128781979705795</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>43434</v>
       </c>
       <c r="B166">
-        <v>4.160213123124113</v>
-      </c>
-      <c r="C166">
         <v>0.01621433006074646</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>43465</v>
       </c>
       <c r="B167">
-        <v>4.080560498396538</v>
-      </c>
-      <c r="C167">
         <v>-0.01543591763112129</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>43496</v>
       </c>
       <c r="B168">
-        <v>4.206247085122192</v>
-      </c>
-      <c r="C168">
         <v>0.0247387245492543</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>43524</v>
       </c>
       <c r="B169">
-        <v>4.092317553114784</v>
-      </c>
-      <c r="C169">
         <v>-0.02188323568679307</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>43555</v>
       </c>
       <c r="B170">
-        <v>4.010092363369145</v>
-      </c>
-      <c r="C170">
         <v>-0.01614690931741769</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>43585</v>
       </c>
       <c r="B171">
-        <v>4.007371208408936</v>
-      </c>
-      <c r="C171">
         <v>-0.0005431346895127254</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>43616</v>
       </c>
       <c r="B172">
-        <v>4.009136179987394</v>
-      </c>
-      <c r="C172">
         <v>0.0003524746828222902</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>43646</v>
       </c>
       <c r="B173">
-        <v>4.156289753398875</v>
-      </c>
-      <c r="C173">
         <v>0.02937703590479179</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>43677</v>
       </c>
       <c r="B174">
-        <v>4.238368717205742</v>
-      </c>
-      <c r="C174">
         <v>0.01591822177036573</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>43708</v>
       </c>
       <c r="B175">
-        <v>4.131736687865456</v>
-      </c>
-      <c r="C175">
         <v>-0.02035596100557924</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>43738</v>
       </c>
       <c r="B176">
-        <v>4.236212174971682</v>
-      </c>
-      <c r="C176">
         <v>0.02035869988288153</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>43769</v>
       </c>
       <c r="B177">
-        <v>4.373742700625831</v>
-      </c>
-      <c r="C177">
         <v>0.0262652698283552</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>43799</v>
       </c>
       <c r="B178">
-        <v>4.344716336956933</v>
-      </c>
-      <c r="C178">
         <v>-0.00540151720801918</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>43830</v>
       </c>
       <c r="B179">
-        <v>4.53692239712493</v>
-      </c>
-      <c r="C179">
         <v>0.03596188236201714</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>43861</v>
       </c>
       <c r="B180">
-        <v>4.628022864079374</v>
-      </c>
-      <c r="C180">
         <v>0.01645326779399126</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>43890</v>
       </c>
       <c r="B181">
-        <v>4.581354484644077</v>
-      </c>
-      <c r="C181">
         <v>-0.008292144606084628</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>43921</v>
       </c>
       <c r="B182">
-        <v>4.487966684276224</v>
-      </c>
-      <c r="C182">
         <v>-0.01673210340335662</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>43951</v>
       </c>
       <c r="B183">
-        <v>4.493405963368578</v>
-      </c>
-      <c r="C183">
         <v>0.0009911283003845028</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>43982</v>
       </c>
       <c r="B184">
-        <v>4.545153810095273</v>
-      </c>
-      <c r="C184">
         <v>0.009419993183056752</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>44012</v>
       </c>
       <c r="B185">
-        <v>4.63091799083807</v>
-      </c>
-      <c r="C185">
         <v>0.01546651070104832</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>44043</v>
       </c>
       <c r="B186">
-        <v>4.696012475503405</v>
-      </c>
-      <c r="C186">
         <v>0.01156019050024315</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>44074</v>
       </c>
       <c r="B187">
-        <v>4.595718908235781</v>
-      </c>
-      <c r="C187">
         <v>-0.01760768040782068</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>44104</v>
       </c>
       <c r="B188">
-        <v>4.491260258275872</v>
-      </c>
-      <c r="C188">
         <v>-0.01866760137042744</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>44135</v>
       </c>
       <c r="B189">
-        <v>4.383701003886504</v>
-      </c>
-      <c r="C189">
         <v>-0.01958735323594729</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>44165</v>
       </c>
       <c r="B190">
-        <v>4.441676058548767</v>
-      </c>
-      <c r="C190">
-        <v>0.01076862452435812</v>
+        <v>-0.001974858645703348</v>
       </c>
     </row>
   </sheetData>
